--- a/Idaho/Overlays/IDov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Idaho/Overlays/IDov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD523574-3BEE-4386-84F7-ACC5F00619C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB067A-5EDA-4BA5-8F96-3080C693E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="5" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="1" activeTab="1" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <t>"Active"</t>
   </si>
   <si>
-    <t>NMre_O1</t>
-  </si>
-  <si>
     <t>*load in date mannualy</t>
   </si>
   <si>
@@ -453,19 +450,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>IDre_O1</t>
-  </si>
-  <si>
     <t>https://idwr.idaho.gov/iwrb/water-planning/camps/</t>
   </si>
   <si>
     <t>We want the Rathdrum, Treasure Valley, and Eastern Snake Comprehensive Aquifer Management Plan (CAMP) ares.</t>
-  </si>
-  <si>
-    <t>IDre_RU + counter</t>
-  </si>
-  <si>
-    <t>IDre_RO + counter</t>
   </si>
   <si>
     <t>Groundwater</t>
@@ -666,6 +654,18 @@
 Groundwater Districts
 Groundwater Management Areas
 Aquifer Recharge Areas</t>
+  </si>
+  <si>
+    <t>IDov_O1</t>
+  </si>
+  <si>
+    <t>IDov_RU + counter</t>
+  </si>
+  <si>
+    <t>IDov_RO + counter</t>
+  </si>
+  <si>
+    <t>NMov_O1</t>
   </si>
 </sst>
 </file>
@@ -1364,9 +1364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1404,7 +1404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1510,7 +1510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1652,7 +1652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,10 +1676,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="103" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C1" s="103"/>
       <c r="D1" s="103" t="s">
@@ -1691,32 +1691,32 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="105" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="104" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,57 +1724,57 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="105"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="104"/>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="104"/>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="105"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D9" s="105"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="105"/>
     </row>
@@ -1783,7 +1783,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="106" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1834,7 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1848,22 +1848,22 @@
         <v>53</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="84" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1874,7 +1874,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,7 +2232,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="87"/>
@@ -2260,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="88"/>
       <c r="G5" s="89"/>
@@ -2288,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="89"/>
@@ -2316,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="89"/>
@@ -2344,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="89"/>
@@ -2372,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="89"/>
@@ -2400,7 +2400,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="89"/>
@@ -2428,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="89"/>
@@ -2486,7 +2486,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2589,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="F4" s="94" t="s">
         <v>11</v>
@@ -2671,13 +2671,13 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="80" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="67" t="s">
         <v>11</v>
@@ -2701,13 +2701,13 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="80" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H8" s="67" t="s">
         <v>11</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="97" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F10" s="80" t="s">
         <v>11</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="55"/>
       <c r="G12" s="96"/>
@@ -2891,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2987,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="F4" s="98"/>
       <c r="G4" s="99"/>
@@ -3013,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>11</v>
@@ -3029,7 +3029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="192" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>76</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="96"/>
@@ -3069,13 +3069,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>11</v>
@@ -3099,13 +3099,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>11</v>
@@ -3189,7 +3189,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="96"/>
@@ -3215,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="100" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="96"/>
@@ -3271,7 +3271,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="56"/>
@@ -3296,7 +3296,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="56"/>
@@ -3348,7 +3348,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3443,7 +3443,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="88" t="s">
         <v>11</v>
@@ -3475,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="F5" s="88" t="s">
         <v>11</v>

--- a/Idaho/Overlays/IDov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Idaho/Overlays/IDov_Overlay Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB067A-5EDA-4BA5-8F96-3080C693E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF0B938-E386-4E9C-B838-D218B8600511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="1" activeTab="1" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="1" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -1819,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
